--- a/02_MasterWifoMannheim/99_Backup/Course77.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course77.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A201159C7E8F35FBDFEA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A49C8D1-34D9-4265-B7DA-35E9C78E94CA}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>FIN 604 Stata in Finance</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>The topic of this course is the practical application of the statistics program “Stata” in Finance research. The course contains three major sections: How to use Stata, an introduction to the usage of the most common databases in example. In the first section, we will introduce project and data management with Stata. we will teach estimation techniques and programming basics. In the second section, we will show where to get access to common datasets in students will have the chance to apply their knowledge to a practical example. The course is offered shortly after the start of the seminar theses, that is, at the beginning of January in the winter semester (HWS) and at the beginning of (FSS).</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The main aim of the course is to prepare students with practical methods for conducting empirical Finance research. Students learn how to load, manipulate, and evaluate data using Stata. Stata is the most popular statistics program used in the Finance research community. In addition, students learn where they can access popular databases used in University of Mannheim. The main focus of the course lies on the practical application of the Stata software.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on registration:Website of the Chair</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 1 3</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Take home exam (pass/fail)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Stefan Scharnowski</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester (July) and spring semester (January)</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>not graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FIN 604 Stata in Finance</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The topic of this course is the practical application of the statistics program “Stata” in Finance research. The course contains three major sections: How to use Stata, an introduction to the usage of the most common databases in example. In the first section, we will introduce project and data management with Stata. we will teach estimation techniques and programming basics. In the second section, we will show where to get access to common datasets in students will have the chance to apply their knowledge to a practical example. The course is offered shortly after the start of the seminar theses, that is, at the beginning of January in the winter semester (HWS) and at the beginning of (FSS).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The main aim of the course is to prepare students with practical methods for conducting empirical Finance research. Students learn how to load, manipulate, and evaluate data using Stata. Stata is the most popular statistics program used in the Finance research community. In addition, students learn where they can access popular databases used in University of Mannheim. The main focus of the course lies on the practical application of the Stata software.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration:Website of the Chair</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 1 3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Take home exam (pass/fail)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Stefan Scharnowski</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Continuously</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>not graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu.</t>
+        </is>
       </c>
     </row>
   </sheetData>
